--- a/OsBeadando/LinuxUtemezo.xlsx
+++ b/OsBeadando/LinuxUtemezo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Egyetem\OS\OsBeadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B361C98-E8D6-480F-AC2B-A45A334D3CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36E4EE0-D24A-4601-8189-B7359283A317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C3332C87-8F26-4CD5-8AA9-EB32850A8BF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="25">
   <si>
     <t>A folyamat</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Round Robin</t>
   </si>
 </sst>
 </file>
@@ -226,9 +229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,6 +268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,38 +589,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B88FD0B-4CD3-4BAE-8888-BC070251990F}">
   <dimension ref="A2:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -668,14 +674,14 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>60</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -697,10 +703,10 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="1"/>
@@ -712,7 +718,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -738,11 +744,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="str">
+      <c r="K5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="L5" s="15" t="str">
+      <c r="L5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
@@ -755,7 +761,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -779,11 +785,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="str">
+      <c r="K6" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L6" s="15" t="str">
+      <c r="L6" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -796,7 +802,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -820,11 +826,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="15" t="str">
+      <c r="K7" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L7" s="15" t="str">
+      <c r="L7" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -837,7 +843,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -861,11 +867,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="str">
+      <c r="K8" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L8" s="15" t="str">
+      <c r="L8" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -878,7 +884,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -902,11 +908,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="15" t="str">
+      <c r="K9" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L9" s="15" t="str">
+      <c r="L9" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -918,7 +924,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -942,11 +948,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="str">
+      <c r="K10" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L10" s="15" t="str">
+      <c r="L10" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -954,7 +960,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -975,11 +981,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15" t="str">
+      <c r="K11" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L11" s="15" t="str">
+      <c r="L11" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -987,7 +993,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1011,11 +1017,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="str">
+      <c r="K12" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L12" s="15" t="str">
+      <c r="L12" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -1023,7 +1029,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1">
         <v>20</v>
       </c>
@@ -1047,11 +1053,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="15" t="str">
+      <c r="K13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L13" s="15" t="str">
+      <c r="L13" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -1059,7 +1065,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1">
         <v>30</v>
       </c>
@@ -1083,11 +1089,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="15" t="str">
+      <c r="K14" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L14" s="15" t="str">
+      <c r="L14" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -1095,7 +1101,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1">
         <v>40</v>
       </c>
@@ -1119,11 +1125,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="15" t="str">
+      <c r="K15" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L15" s="15" t="str">
+      <c r="L15" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -1131,7 +1137,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="4">
         <v>50</v>
       </c>
@@ -1155,11 +1161,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="15" t="str">
+      <c r="K16" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L16" s="15" t="str">
+      <c r="L16" s="14" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
@@ -1167,22 +1173,22 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="2">
         <v>60</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="12">
         <f>$D$4+10*D10</f>
         <v>60</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17">
         <f>$H$4</f>
         <v>0</v>
       </c>
@@ -1191,11 +1197,11 @@
         <f>J$4</f>
         <v>0</v>
       </c>
-      <c r="K17" s="18" t="str">
+      <c r="K17" s="17" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="8"/>
@@ -1203,7 +1209,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="29">
         <v>2</v>
       </c>
       <c r="B18" s="13">
@@ -1217,11 +1223,11 @@
         <f>_xlfn.FLOOR.MATH($D$17/$O$8)</f>
         <v>30</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <f>$O$3+_xlfn.FLOOR.MATH($F$17/$O$8)+_xlfn.FLOOR.MATH($O$5/$O$9)</f>
         <v>62</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f>$F$4</f>
         <v>0</v>
       </c>
@@ -1241,17 +1247,17 @@
         <f>$J$4</f>
         <v>0</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="13">
         <v>62</v>
       </c>
@@ -1260,12 +1266,12 @@
         <f t="shared" ref="D19:D30" si="4">_xlfn.FLOOR.MATH($D$17/$O$8)</f>
         <v>30</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
         <f t="shared" ref="F19:F30" si="5">$F$4</f>
         <v>0</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="9">
         <f t="shared" ref="H19:H23" si="6">H18+1</f>
         <v>2</v>
@@ -1275,17 +1281,17 @@
         <f t="shared" ref="J19:J30" si="7">$J$4</f>
         <v>0</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="13">
         <v>63</v>
       </c>
@@ -1294,12 +1300,12 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -1309,17 +1315,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="13">
         <v>64</v>
       </c>
@@ -1328,12 +1334,12 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="9">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -1343,17 +1349,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="13">
         <v>65</v>
       </c>
@@ -1362,12 +1368,12 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="9">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -1377,17 +1383,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="6">
         <v>66</v>
       </c>
@@ -1396,12 +1402,12 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="9">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -1411,17 +1417,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
@@ -1430,29 +1436,29 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="7"/>
       <c r="J24" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="4">
         <v>70</v>
       </c>
@@ -1461,13 +1467,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16">
         <f>H18*10</f>
         <v>10</v>
       </c>
@@ -1476,17 +1482,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="7">
         <v>80</v>
       </c>
@@ -1495,13 +1501,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16">
         <f t="shared" ref="H26:H30" si="8">H19*10</f>
         <v>20</v>
       </c>
@@ -1510,17 +1516,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7">
         <v>90</v>
       </c>
@@ -1529,13 +1535,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -1544,17 +1550,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7">
         <v>100</v>
       </c>
@@ -1563,13 +1569,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
@@ -1578,17 +1584,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="7">
         <v>110</v>
       </c>
@@ -1597,13 +1603,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -1612,17 +1618,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="19" t="s">
         <v>22</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="2">
         <v>120</v>
       </c>
@@ -1631,13 +1637,13 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
@@ -1646,17 +1652,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="18" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="29">
         <v>3</v>
       </c>
       <c r="B31" s="13">
@@ -1667,7 +1673,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" ref="D31:D43" si="9">_xlfn.FLOOR.MATH($D$30/$O$8)</f>
         <v>15</v>
       </c>
       <c r="E31" s="7">
@@ -1686,394 +1692,394 @@
         <f>_xlfn.FLOOR.MATH($H$30/$O$8)</f>
         <v>30</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="16">
         <f>$O$3+_xlfn.FLOOR.MATH($J$31/$O$8)+_xlfn.FLOOR.MATH($O$7/$O$9)</f>
         <v>60</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="16">
         <f>J30+1</f>
         <v>1</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="19" t="s">
         <v>23</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="13">
         <v>122</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
-        <f t="shared" ref="F32:F43" si="9">$F$4</f>
+        <f t="shared" ref="F32:F43" si="10">$F$4</f>
         <v>0</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7">
-        <f t="shared" ref="H32:H43" si="10">_xlfn.FLOOR.MATH($H$30/$O$8)</f>
-        <v>30</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17">
-        <f t="shared" ref="J32:J36" si="11">J31+1</f>
+        <f t="shared" ref="H32:H43" si="11">_xlfn.FLOOR.MATH($H$30/$O$8)</f>
+        <v>30</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16">
+        <f t="shared" ref="J32:J36" si="12">J31+1</f>
         <v>2</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="13">
         <v>123</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17">
         <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="13">
         <v>124</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17">
         <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="13">
         <v>125</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17">
         <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="6">
         <v>126</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17">
         <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="20" t="s">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="5">
         <v>130</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16">
         <f>J31*10</f>
         <v>10</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="7">
         <v>140</v>
       </c>
       <c r="D39" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="I39" s="10"/>
-      <c r="J39" s="17">
-        <f t="shared" ref="J39:J43" si="12">J32*10</f>
+      <c r="J39" s="16">
+        <f t="shared" ref="J39:J43" si="13">J32*10</f>
         <v>20</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="7">
         <v>150</v>
       </c>
       <c r="D40" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="I40" s="10"/>
-      <c r="J40" s="17">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="K40" s="20" t="s">
+      <c r="J40" s="16">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="7">
         <v>160</v>
       </c>
       <c r="D41" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="I41" s="10"/>
-      <c r="J41" s="17">
-        <f t="shared" si="12"/>
+      <c r="J41" s="16">
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="20" t="s">
+      <c r="L41" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="7">
         <v>170</v>
       </c>
       <c r="D42" s="7">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="I42" s="10"/>
-      <c r="J42" s="17">
-        <f t="shared" si="12"/>
+      <c r="J42" s="16">
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="20" t="s">
+      <c r="L42" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="2">
         <v>180</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="3">
-        <f>_xlfn.FLOOR.MATH($D$30/$O$8)</f>
-        <v>15</v>
-      </c>
-      <c r="E43" s="21"/>
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="E43" s="20"/>
       <c r="F43" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="21"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="20"/>
       <c r="H43" s="3">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="15">
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="29">
         <v>4</v>
       </c>
       <c r="B44" s="13">
@@ -2084,14 +2090,14 @@
         <v>63</v>
       </c>
       <c r="D44" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" ref="D44:D56" si="14">_xlfn.FLOOR.MATH($D$43/$O$8)</f>
         <v>7</v>
       </c>
       <c r="E44" s="10">
         <f>$O$3+_xlfn.FLOOR.MATH($F$44/$O$8)+_xlfn.FLOOR.MATH($O$5/$O$9)</f>
         <v>62</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="24">
         <f>F43+1</f>
         <v>1</v>
       </c>
@@ -2111,363 +2117,363 @@
         <f>_xlfn.FLOOR.MATH($J$43/$O$8)</f>
         <v>30</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="22" t="s">
+      <c r="L44" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="13">
         <v>182</v>
       </c>
       <c r="D45" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="25">
-        <f t="shared" ref="F45:F49" si="13">F44+1</f>
+      <c r="F45" s="24">
+        <f t="shared" ref="F45:F49" si="15">F44+1</f>
         <v>2</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" ref="H45:H56" si="14">_xlfn.FLOOR.MATH($H$43/$O$8)</f>
+        <f t="shared" ref="H45:H56" si="16">_xlfn.FLOOR.MATH($H$43/$O$8)</f>
         <v>15</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" ref="J45:J56" si="15">_xlfn.FLOOR.MATH($J$43/$O$8)</f>
-        <v>30</v>
-      </c>
-      <c r="K45" s="22" t="s">
+        <f t="shared" ref="J45:J56" si="17">_xlfn.FLOOR.MATH($J$43/$O$8)</f>
+        <v>30</v>
+      </c>
+      <c r="K45" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="22" t="s">
+      <c r="L45" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="13">
         <v>183</v>
       </c>
       <c r="D46" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="25">
-        <f t="shared" si="13"/>
+      <c r="F46" s="24">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K46" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K46" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="22" t="s">
+      <c r="L46" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="13">
         <v>184</v>
       </c>
       <c r="D47" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="25">
-        <f t="shared" si="13"/>
+      <c r="F47" s="24">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K47" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K47" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="22" t="s">
+      <c r="L47" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="13">
         <v>185</v>
       </c>
       <c r="D48" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="25">
-        <f t="shared" si="13"/>
+      <c r="F48" s="24">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K48" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K48" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="22" t="s">
+      <c r="L48" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="6">
         <v>186</v>
       </c>
       <c r="D49" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="25">
-        <f t="shared" si="13"/>
+      <c r="F49" s="24">
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K49" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="22" t="s">
+      <c r="L49" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="H50" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K50" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K50" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="22" t="s">
+      <c r="L50" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="5">
         <v>190</v>
       </c>
       <c r="D51" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="25">
+      <c r="F51" s="24">
         <f>F44*10</f>
         <v>10</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J51" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K51" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K51" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="22" t="s">
+      <c r="L51" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="7">
         <v>200</v>
       </c>
       <c r="D52" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="25">
-        <f t="shared" ref="F52:F56" si="16">F45*10</f>
+      <c r="F52" s="24">
+        <f t="shared" ref="F52:F56" si="18">F45*10</f>
         <v>20</v>
       </c>
       <c r="H52" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K52" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K52" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="22" t="s">
+      <c r="L52" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="7">
         <v>210</v>
       </c>
       <c r="D53" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="25">
+      <c r="F53" s="24">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="H53" s="13">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="H53" s="13">
-        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="J53" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K53" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K53" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="22" t="s">
+      <c r="L53" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="7">
         <v>220</v>
       </c>
       <c r="D54" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="25">
+      <c r="F54" s="24">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="H54" s="13">
         <f t="shared" si="16"/>
-        <v>40</v>
-      </c>
-      <c r="H54" s="13">
-        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K54" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K54" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="22" t="s">
+      <c r="L54" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="7">
         <v>230</v>
       </c>
       <c r="D55" s="13">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E55" s="10"/>
-      <c r="F55" s="25">
+      <c r="F55" s="24">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="H55" s="13">
         <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="H55" s="13">
-        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K55" s="22" t="s">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K55" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="22" t="s">
+      <c r="L55" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="2">
         <v>240</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="26">
-        <f>_xlfn.FLOOR.MATH($D$43/$O$8)</f>
+      <c r="C56" s="20"/>
+      <c r="D56" s="25">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="27">
+      <c r="E56" s="23"/>
+      <c r="F56" s="26">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="25">
         <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="26">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="26">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="K56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="20"/>
+      <c r="J56" s="25">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="K56" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="29" t="s">
+      <c r="L56" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="29">
         <v>5</v>
       </c>
       <c r="B57" s="13">
@@ -2485,7 +2491,7 @@
         <f>$O$3+_xlfn.FLOOR.MATH($F$57/$O$8)+_xlfn.FLOOR.MATH($O$5/$O$9)</f>
         <v>77</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="21">
         <f>_xlfn.FLOOR.MATH($F$56/$O$8)</f>
         <v>30</v>
       </c>
@@ -2505,15 +2511,15 @@
         <f>_xlfn.FLOOR.MATH($J$56/$O$8)</f>
         <v>15</v>
       </c>
-      <c r="K57" s="22" t="s">
+      <c r="K57" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L57" s="22" t="s">
+      <c r="L57" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="13">
         <v>242</v>
       </c>
@@ -2521,164 +2527,164 @@
         <f>D57+1</f>
         <v>5</v>
       </c>
-      <c r="F58" s="22">
-        <f t="shared" ref="F58:F69" si="17">_xlfn.FLOOR.MATH($F$56/$O$8)</f>
+      <c r="F58" s="21">
+        <f t="shared" ref="F58:F69" si="19">_xlfn.FLOOR.MATH($F$56/$O$8)</f>
         <v>30</v>
       </c>
       <c r="H58" s="13">
-        <f t="shared" ref="H58:H69" si="18">_xlfn.FLOOR.MATH($H$56/$O$8)</f>
+        <f t="shared" ref="H58:H69" si="20">_xlfn.FLOOR.MATH($H$56/$O$8)</f>
         <v>7</v>
       </c>
       <c r="J58" s="13">
-        <f t="shared" ref="J58:J69" si="19">_xlfn.FLOOR.MATH($J$56/$O$8)</f>
-        <v>15</v>
-      </c>
-      <c r="K58" s="22" t="s">
+        <f t="shared" ref="J58:J69" si="21">_xlfn.FLOOR.MATH($J$56/$O$8)</f>
+        <v>15</v>
+      </c>
+      <c r="K58" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L58" s="22" t="s">
+      <c r="L58" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="13">
         <v>243</v>
       </c>
       <c r="D59" s="13">
-        <f t="shared" ref="D59:D63" si="20">D58+1</f>
+        <f t="shared" ref="D59:D62" si="22">D58+1</f>
         <v>6</v>
       </c>
-      <c r="F59" s="22">
-        <f t="shared" si="17"/>
+      <c r="F59" s="21">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H59" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J59" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K59" s="22" t="s">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K59" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="22" t="s">
+      <c r="L59" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="13">
         <v>244</v>
       </c>
       <c r="D60" s="13">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="F60" s="21">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H60" s="13">
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="F60" s="22">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="H60" s="13">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
       <c r="J60" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K60" s="22" t="s">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K60" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L60" s="22" t="s">
+      <c r="L60" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="13">
         <v>245</v>
       </c>
       <c r="D61" s="13">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="F61" s="21">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H61" s="13">
         <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="F61" s="22">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="H61" s="13">
-        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="J61" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K61" s="22" t="s">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K61" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L61" s="22" t="s">
+      <c r="L61" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="6">
         <v>246</v>
       </c>
       <c r="D62" s="13">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="F62" s="21">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H62" s="13">
         <f t="shared" si="20"/>
-        <v>9</v>
-      </c>
-      <c r="F62" s="22">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="H62" s="13">
-        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="J62" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K62" s="22" t="s">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K62" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L62" s="22" t="s">
+      <c r="L62" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="13"/>
-      <c r="F63" s="22">
-        <f t="shared" si="17"/>
+      <c r="F63" s="21">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H63" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J63" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K63" s="22" t="s">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K63" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L63" s="22" t="s">
+      <c r="L63" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="5">
         <v>250</v>
       </c>
@@ -2686,166 +2692,166 @@
         <f>B64-240+$D$57</f>
         <v>14</v>
       </c>
-      <c r="F64" s="22">
-        <f t="shared" si="17"/>
+      <c r="F64" s="21">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K64" s="22" t="s">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K64" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="22" t="s">
+      <c r="L64" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="7">
         <v>260</v>
       </c>
       <c r="D65" s="13">
-        <f t="shared" ref="D65:D69" si="21">B65-240+$D$57</f>
+        <f t="shared" ref="D65:D69" si="23">B65-240+$D$57</f>
         <v>24</v>
       </c>
-      <c r="F65" s="22">
-        <f t="shared" si="17"/>
+      <c r="F65" s="21">
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K65" s="22" t="s">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K65" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="22" t="s">
+      <c r="L65" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="7">
         <v>270</v>
       </c>
       <c r="D66" s="13">
+        <f t="shared" si="23"/>
+        <v>34</v>
+      </c>
+      <c r="F66" s="21">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H66" s="13">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="J66" s="13">
         <f t="shared" si="21"/>
-        <v>34</v>
-      </c>
-      <c r="F66" s="22">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="H66" s="13">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="J66" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K66" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="22" t="s">
+      <c r="L66" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="7">
         <v>280</v>
       </c>
       <c r="D67" s="13">
+        <f t="shared" si="23"/>
+        <v>44</v>
+      </c>
+      <c r="F67" s="21">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H67" s="13">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="J67" s="13">
         <f t="shared" si="21"/>
-        <v>44</v>
-      </c>
-      <c r="F67" s="22">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="H67" s="13">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="J67" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K67" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="22" t="s">
+      <c r="L67" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="7">
         <v>290</v>
       </c>
       <c r="D68" s="13">
+        <f t="shared" si="23"/>
+        <v>54</v>
+      </c>
+      <c r="F68" s="21">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H68" s="13">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="J68" s="13">
         <f t="shared" si="21"/>
-        <v>54</v>
-      </c>
-      <c r="F68" s="22">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="H68" s="13">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="J68" s="13">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K68" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L68" s="22" t="s">
+      <c r="L68" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="2">
         <v>300</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="26">
+      <c r="C69" s="20"/>
+      <c r="D69" s="25">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="27">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="25">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="25">
         <f t="shared" si="21"/>
-        <v>64</v>
-      </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="28">
-        <f t="shared" si="17"/>
-        <v>30</v>
-      </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="26">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="26">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="K69" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L69" s="29" t="s">
+      <c r="L69" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2868,7 +2874,7 @@
         <f>$O$3+_xlfn.FLOOR.MATH($F$70/$O$8)+_xlfn.FLOOR.MATH($O$5/$O$9)</f>
         <v>69</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="21">
         <f>_xlfn.FLOOR.MATH($F$69/$O$8)</f>
         <v>15</v>
       </c>
@@ -2888,10 +2894,10 @@
         <f>_xlfn.FLOOR.MATH($J$69/$O$8)</f>
         <v>7</v>
       </c>
-      <c r="K70" s="22" t="s">
+      <c r="K70" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="22" t="s">
+      <c r="L70" s="21" t="s">
         <v>22</v>
       </c>
     </row>
